--- a/DOC/環境構築/開発環境構築.xlsx
+++ b/DOC/環境構築/開発環境構築.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\環境構築\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5221C0D6-7D7A-4377-9C6A-258695B1D33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="4065" yWindow="420" windowWidth="23910" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB構築Old" sheetId="4" r:id="rId1"/>
@@ -17,12 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>MySQL root パスワード：softtech</t>
-  </si>
-  <si>
-    <t>DB名：softtech_office</t>
   </si>
   <si>
     <t>8.0バージョンの場合、セキュリティーダウンための設定</t>
@@ -53,8 +56,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="128"/>
+        <rFont val="游ゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>下記、インストール例です。しかし　</t>
@@ -64,8 +66,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="128"/>
+        <rFont val="游ゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>失敗しました。</t>
@@ -155,22 +156,52 @@
   <si>
     <t>以上。</t>
   </si>
+  <si>
+    <t>softtech</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パスワード：</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>DB名：</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>softtech_office</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　ems</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -178,364 +209,76 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <charset val="128"/>
+      <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="128"/>
+      <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -543,259 +286,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -804,69 +308,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -877,26 +344,32 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23" descr="キャプチャ"/>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23" descr="キャプチャ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="1584960"/>
-          <a:ext cx="8570595" cy="5577840"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="2150745"/>
+          <a:ext cx="9462135" cy="6478905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -909,32 +382,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24" descr="キャプチャ2"/>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24" descr="キャプチャ2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="8069580"/>
-          <a:ext cx="7983855" cy="6461760"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="9056370"/>
+          <a:ext cx="8806815" cy="7945755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -946,33 +425,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25" descr="キャプチャ3"/>
+        <xdr:cNvPr id="26" name="图片 25" descr="キャプチャ3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="15255240"/>
-          <a:ext cx="7465695" cy="5600700"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="17552670"/>
+          <a:ext cx="8288655" cy="6497955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,32 +470,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26" descr="キャプチャ4"/>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26" descr="キャプチャ4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="21739860"/>
-          <a:ext cx="7435215" cy="5623560"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="24772620"/>
+          <a:ext cx="8258175" cy="7145655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1023,32 +514,82 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图片 27" descr="キャプチャ5"/>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27" descr="キャプチャ5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="27873960"/>
-          <a:ext cx="7442835" cy="5570220"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="32392620"/>
+          <a:ext cx="8265795" cy="6955155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28" descr="キャプチャ6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="39774496"/>
+          <a:ext cx="8265795" cy="6888480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,27 +607,33 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28" descr="キャプチャ6"/>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29" descr="キャプチャ7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="34709100"/>
-          <a:ext cx="7442835" cy="5577840"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="47156370"/>
+          <a:ext cx="8220075" cy="7088505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1098,33 +645,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29" descr="キャプチャ7"/>
+      <xdr:colOff>51435</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30" descr="キャプチャ8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="40843200"/>
-          <a:ext cx="7397115" cy="5608320"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="54604920"/>
+          <a:ext cx="8281035" cy="6926580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1136,33 +689,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="图片 30" descr="キャプチャ8"/>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31" descr="キャプチャ9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="46802040"/>
-          <a:ext cx="7458075" cy="5623560"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="61939170"/>
+          <a:ext cx="8288655" cy="6993255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,32 +734,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>333</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="图片 31" descr="キャプチャ9"/>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32" descr="キャプチャ10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="52760880"/>
-          <a:ext cx="7465695" cy="5615940"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="69530595"/>
+          <a:ext cx="8288655" cy="7098030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,32 +778,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>368</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="图片 32" descr="キャプチャ10"/>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33" descr="キャプチャ11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="58894980"/>
-          <a:ext cx="7465695" cy="5631180"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="77150595"/>
+          <a:ext cx="8273415" cy="7164705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1251,32 +822,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>402</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="图片 33" descr="キャプチャ11"/>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34" descr="キャプチャ12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="64853820"/>
-          <a:ext cx="7450455" cy="5600700"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="84770595"/>
+          <a:ext cx="8281035" cy="6678930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,32 +866,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>404</xdr:row>
+      <xdr:row>386</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>436</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="图片 34" descr="キャプチャ12"/>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35" descr="キャプチャ13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="70812660"/>
-          <a:ext cx="7458075" cy="5608320"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="91914345"/>
+          <a:ext cx="8265795" cy="6774180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1327,32 +910,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>438</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>470</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="图片 35" descr="キャプチャ13"/>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36" descr="キャプチャ14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="76771500"/>
-          <a:ext cx="7442835" cy="5615940"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="99058095"/>
+          <a:ext cx="8250555" cy="6917055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1365,32 +954,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>473</xdr:row>
+      <xdr:row>447</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>505</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="图片 36" descr="キャプチャ14"/>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37" descr="キャプチャ15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="82905600"/>
-          <a:ext cx="7427595" cy="5615940"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="106439970"/>
+          <a:ext cx="8258175" cy="6545580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1403,32 +998,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>508</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>540</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="图片 37" descr="キャプチャ15"/>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38" descr="キャプチャ16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="89039700"/>
-          <a:ext cx="7435215" cy="5623560"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="113583720"/>
+          <a:ext cx="8288655" cy="6021705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,32 +1042,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>543</xdr:row>
+      <xdr:row>504</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>575</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="图片 38" descr="キャプチャ16"/>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39" descr="キャプチャ17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="95173800"/>
-          <a:ext cx="7465695" cy="5608320"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="120013095"/>
+          <a:ext cx="8296275" cy="6536055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,32 +1086,38 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>579</xdr:row>
+      <xdr:row>534</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>611</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="图片 39" descr="キャプチャ17"/>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40" descr="キャプチャ18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="101483160"/>
-          <a:ext cx="7473315" cy="5615940"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="403860" y="107442000"/>
+          <a:ext cx="9408795" cy="4930140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1515,64 +1128,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>613</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>641</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="图片 40" descr="キャプチャ18"/>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>318135</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>591</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="107442000"/>
-          <a:ext cx="9408795" cy="4930140"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>318135</xdr:colOff>
-      <xdr:row>642</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>670</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="图片 41"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1597,7 +1178,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1613,13 +1194,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1649,9 +1236,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1711,13 +1304,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1747,9 +1346,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1809,13 +1414,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1847,13 +1458,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1885,13 +1502,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1923,13 +1546,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1961,13 +1590,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1999,13 +1634,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2026,7 +1667,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2042,13 +1683,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2080,13 +1727,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2118,13 +1771,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2156,13 +1815,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2194,11 +1859,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="画像 6"/>
+        <xdr:cNvPr id="17" name="画像 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2233,11 +1904,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="画像 5"/>
+        <xdr:cNvPr id="18" name="画像 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2272,11 +1949,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="画像 4"/>
+        <xdr:cNvPr id="19" name="画像 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2311,11 +1994,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="画像 7"/>
+        <xdr:cNvPr id="20" name="画像 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2350,11 +2039,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="画像 8"/>
+        <xdr:cNvPr id="21" name="画像 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2389,11 +2084,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="画像 9"/>
+        <xdr:cNvPr id="23" name="画像 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,11 +2129,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="画像 10"/>
+        <xdr:cNvPr id="24" name="画像 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2465,9 +2172,15 @@
       <xdr:row>218</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2525,9 +2238,15 @@
       <xdr:row>208</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2587,11 +2306,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="画像 11"/>
+        <xdr:cNvPr id="29" name="画像 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2626,11 +2351,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="画像 12"/>
+        <xdr:cNvPr id="30" name="画像 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2665,11 +2396,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="画像 13"/>
+        <xdr:cNvPr id="31" name="画像 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2702,9 +2439,15 @@
       <xdr:row>314</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2764,11 +2507,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="画像 14"/>
+        <xdr:cNvPr id="33" name="画像 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3043,328 +2792,341 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" display="https://dev.mysql.com/downloads/windows/installer/5.7.html"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:O302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="T300" sqref="T300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
-        <v>15</v>
+    <row r="291" spans="15:15" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O300" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="301" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O301" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="302" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O302" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId2" display="https://dev.mysql.com/downloads/windows/installer/5.7.html"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.37962962962963" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B141" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:M354"/>
   <sheetViews>
     <sheetView topLeftCell="A337" workbookViewId="0">
       <selection activeCell="D363" sqref="D363"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="6.62962962962963" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J91" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="10:10">
-      <c r="J91" s="1" t="s">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J100" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="10:10">
-      <c r="J100" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
-      <c r="B246" s="2"/>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A291" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
+    <row r="354" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M354" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="354" spans="13:13">
-      <c r="M354" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <hyperlinks>
-    <hyperlink ref="J91" r:id="rId2" display="https://github.com/softtechSoft/office.git"/>
+    <hyperlink ref="J91" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DOC/環境構築/開発環境構築.xlsx
+++ b/DOC/環境構築/開発環境構築.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\環境構築\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5221C0D6-7D7A-4377-9C6A-258695B1D33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3681E176-192D-42E4-9396-3D1B70843001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="420" windowWidth="23910" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="720" windowWidth="23910" windowHeight="14790" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB構築Old" sheetId="4" r:id="rId1"/>
+    <sheet name="DB構築Old" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="DB構築" sheetId="2" r:id="rId2"/>
-    <sheet name="開発環境構築" sheetId="1" r:id="rId3"/>
-    <sheet name="DEBUG環境作成" sheetId="3" r:id="rId4"/>
+    <sheet name="開発環境構築" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="DEBUG環境作成" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>MySQL root パスワード：softtech</t>
   </si>
@@ -57,6 +57,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>下記、インストール例です。しかし　</t>
@@ -67,6 +69,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>失敗しました。</t>
@@ -192,12 +196,63 @@
     </r>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>DB作成</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1)MｙSQLへログイン</t>
+  </si>
+  <si>
+    <t>　　c:&gt;mysql -u root -p</t>
+  </si>
+  <si>
+    <t>　　　password： softtech</t>
+  </si>
+  <si>
+    <t>2)社内管理DBを作成</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　create database </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>A5MK2ツールインストール</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,12 +265,16 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,12 +282,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,6 +332,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,6 +382,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,16 +1160,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>534</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>562</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>532</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>178069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1116,8 +1192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="403860" y="107442000"/>
-          <a:ext cx="9408795" cy="4930140"/>
+          <a:off x="419100" y="126832995"/>
+          <a:ext cx="8201025" cy="5256799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1129,15 +1205,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>318135</xdr:colOff>
-      <xdr:row>563</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>591</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>394335</xdr:colOff>
+      <xdr:row>556</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>179327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1160,8 +1236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="318135" y="112615980"/>
-          <a:ext cx="9319260" cy="4869180"/>
+          <a:off x="394335" y="132506085"/>
+          <a:ext cx="7511415" cy="4823717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2800,7 +2876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -2901,10 +2977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:O302"/>
+  <dimension ref="A2:O587"/>
   <sheetViews>
-    <sheetView topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="T300" sqref="T300"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="G595" sqref="G595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2961,6 +3037,41 @@
     <row r="302" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O302" s="5" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A579" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B580" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B581" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B582" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B584" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B585" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A587" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2978,7 +3089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
@@ -3054,7 +3165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:M354"/>
   <sheetViews>
-    <sheetView topLeftCell="A337" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="D363" sqref="D363"/>
     </sheetView>
   </sheetViews>
